--- a/ExportedEstimate.xlsx
+++ b/ExportedEstimate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Microsoft Azure Estimate</t>
   </si>
@@ -44,34 +44,16 @@
     <t>Compute</t>
   </si>
   <si>
-    <t>Virtual Machines</t>
+    <t>App Service</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>East US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 A0 (1 Core, 0.75 GB RAM) x 730 Hours (Pay as you go), Linux,  (Pay as you go); 0 managed disks – S4; Inter Region transfer type, 5 GB outbound data transfer from East US to East Asia</t>
-  </si>
-  <si>
-    <t>Databases</t>
-  </si>
-  <si>
-    <t>Azure SQL Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Database, vCore, General Purpose, Serverless, Standard-series (Gen 5), Locally Redundant, 1 Billed vCores, RA-GRS Backup Storage Redundancy, 0 GB Point-In-Time Restore,  0 x 5 GB Long Term Retention</t>
-  </si>
-  <si>
-    <t>App Service</t>
-  </si>
-  <si>
     <t>West US</t>
   </si>
   <si>
-    <t>Basic Tier; 1 B1 (1 Core(s), 1.75 GB RAM, 10 GB Storage) x 730 Hours; Linux OS; 0 SNI SSL Connections; 0 IP SSL Connections; 0 Custom Domains; 0 Standard SLL Certificates; 0 Wildcard SSL Certificates</t>
+    <t>Basic Tier; 1 B1 (1 Core(s), 1.75 GB RAM, 10 GB Storage) x 730 Hours; Linux OS; 0 SNI SSL Connections; 0 IP SSL Connections; 0 Customised Domains; 0 Standard SLL Certificates; 0 Wildcard SSL Certificates</t>
   </si>
   <si>
     <t>Internet of Things</t>
@@ -80,7 +62,49 @@
     <t>Azure IoT Hub</t>
   </si>
   <si>
-    <t xml:space="preserve">Basic Tier, B1: Unlimited devices, 400,000 msgs/day, $10.00/mo, 0 IoT Hub Units; </t>
+    <t>East US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Tier, Free: 500 devices, 8,000 msgs/day, $0.00/mo, 0 IoT Hub Units; </t>
+  </si>
+  <si>
+    <t>Azure Container Instances</t>
+  </si>
+  <si>
+    <t>1 Container group(s) x 10 Second(s), Linux OS, Pay as you go, 1 GB Memory, 1 vCPU(s)</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>Consumption tier, Pay as you go, 128 MB memory, 100 milliseconds execution time, 0 executions/mo</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Azure Database for PostgreSQL</t>
+  </si>
+  <si>
+    <t>Flexible Server Deployment, General Purpose Tier, 1 D2ds v5 (2 vCores) x 730 Hours (Pay as you go), Storage - Premium SSD, 5 GiB Storage, 0 Provisioned IOPS, 0 GiB Additional Back-up storage - LRS redundancy, without High Availability</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Storage Accounts</t>
+  </si>
+  <si>
+    <t>Block Blob Storage, General Purpose V2, Flat Namespace, LRS Redundancy, Hot Access Tier, 1,000 GB Capacity - Pay as you go, 10 x 10,000 Write operations, 10 x 10,000 List and Create Container Operations, 10 x 10,000 Read operations, 1 x 10,000 Other operations. 1,000 GB Data Retrieval, 1,000 GB Data Write, SFTP disabled</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>Azure Container Registry</t>
+  </si>
+  <si>
+    <t>Basic Tier, 1 registry x 30 days, 0 GB Extra Storage, Container Build - 1 CPUs x 1 Seconds - Inter Region transfer type, 5 GB outbound data transfer from East US to East Asia</t>
   </si>
   <si>
     <t>Support</t>
@@ -104,10 +128,10 @@
     <t>Disclaimer</t>
   </si>
   <si>
-    <t>All prices shown are in Euro Zone – Euro (€) EUR. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
+    <t>All prices shown are in United States – Dollar ($) USD. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
   </si>
   <si>
-    <t>This estimate was created at 3/2/2025 9:20:12 AM UTC.</t>
+    <t>This estimate was created at 6/28/2025 11:29:05 AM UTC.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$€]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -380,7 +404,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5">
-        <v>12.506543568267263</v>
+        <v>13.14</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -407,10 +431,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -419,10 +443,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5">
-        <v>5.0499766811021756</v>
+        <v>13.14</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -449,22 +473,22 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5">
-        <v>12.506543568267263</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -491,22 +515,22 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>0.000124861111111111</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -533,14 +557,20 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="13" t="s">
-        <v>23</v>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
@@ -568,17 +598,27 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="13" t="s">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
+      <c r="F9" s="5">
+        <v>130.515</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -600,17 +640,27 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13" t="s">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5">
+        <v>21.844</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -632,17 +682,27 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
-        <v>27</v>
+      <c r="A11" s="3" t="s">
+        <v>28</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -664,17 +724,19 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="14" t="s">
-        <v>28</v>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="15">
-        <v>30.0630638176367</v>
+      <c r="F12" s="5">
+        <v>0</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="7"/>
@@ -701,8 +763,12 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="7"/>
@@ -726,13 +792,15 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="7"/>
@@ -756,15 +824,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>30</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -786,15 +856,19 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="s">
-        <v>31</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="15">
+        <v>183.63712486111112</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -816,13 +890,13 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -844,7 +918,9 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -872,13 +948,15 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -900,13 +978,15 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -928,13 +1008,13 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -28371,8 +28451,8 @@
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
